--- a/data/donnees_AGRIVET FIANARANTSOA_2023-07-21.xlsx
+++ b/data/donnees_AGRIVET FIANARANTSOA_2023-07-21.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-16136330</v>
+        <v>-18075330</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>12437400</v>
@@ -637,7 +637,7 @@
         <v>9288250</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>10799320</v>
+        <v>8860320</v>
       </c>
     </row>
     <row r="6">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-13719600</v>
+        <v>-13927600</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>14589203.2</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>869603.2</v>
+        <v>661603.2</v>
       </c>
     </row>
     <row r="8">
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-8311700</v>
+        <v>-12244600</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>7827500</v>
@@ -1232,7 +1232,7 @@
         <v>2935400</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>4823000</v>
+        <v>890100</v>
       </c>
     </row>
     <row r="23">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-16222200</v>
+        <v>-17075700</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>8188000</v>
@@ -1267,7 +1267,7 @@
         <v>6930600</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>2400393</v>
+        <v>1546893</v>
       </c>
     </row>
     <row r="24">
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-20922822.5</v>
+        <v>-22192822.5</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>7939300</v>
@@ -1442,7 +1442,7 @@
         <v>12531850</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>12298087.5</v>
+        <v>11028087.5</v>
       </c>
     </row>
     <row r="29">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-23325050</v>
+        <v>-25281150</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>8192100</v>
@@ -1547,7 +1547,7 @@
         <v>17554900</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>6007700</v>
+        <v>4051600</v>
       </c>
     </row>
     <row r="32">
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-3512300</v>
+        <v>-3722300</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>2569500</v>
@@ -1582,7 +1582,7 @@
         <v>240000</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>-12300</v>
+        <v>-222300</v>
       </c>
     </row>
     <row r="33">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-23721750</v>
+        <v>-32641950</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>22483850</v>
@@ -1617,7 +1617,7 @@
         <v>260000</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>9176200</v>
+        <v>256000</v>
       </c>
     </row>
     <row r="34">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-15018200</v>
+        <v>-20222200</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>10273200</v>
@@ -1757,7 +1757,7 @@
         <v>3088750</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>3491250</v>
+        <v>-1712750</v>
       </c>
     </row>
     <row r="38">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-7839850</v>
+        <v>-8354350</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>1580400</v>
@@ -1897,7 +1897,7 @@
         <v>7232450</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>973000</v>
+        <v>458500</v>
       </c>
     </row>
     <row r="42">
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-19588100</v>
+        <v>-22133600</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>15419200</v>
@@ -2352,7 +2352,7 @@
         <v>5982400</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>10395500</v>
+        <v>7850000</v>
       </c>
     </row>
     <row r="55">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>1956400</v>
+        <v>731400</v>
       </c>
       <c r="E56" s="2" t="n">
         <v>43600</v>
@@ -2422,7 +2422,7 @@
         <v>4365000</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>6365000</v>
+        <v>5140000</v>
       </c>
     </row>
     <row r="57">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>-4409676.1</v>
+        <v>-5385376.1</v>
       </c>
       <c r="E63" s="2" t="n">
         <v>8265900</v>
@@ -2667,7 +2667,7 @@
         <v>3358650</v>
       </c>
       <c r="I63" s="2" t="n">
-        <v>11270473.9</v>
+        <v>10294773.9</v>
       </c>
     </row>
     <row r="64">
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>-10240750</v>
+        <v>-10495750</v>
       </c>
       <c r="E66" s="2" t="n">
         <v>3614650</v>
@@ -2772,7 +2772,7 @@
         <v>7291500</v>
       </c>
       <c r="I66" s="2" t="n">
-        <v>6617400</v>
+        <v>6362400</v>
       </c>
     </row>
     <row r="67">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-3035100</v>
+        <v>-4035100</v>
       </c>
       <c r="E69" s="2" t="n">
         <v>3449300</v>
@@ -2877,7 +2877,7 @@
         <v>1788300</v>
       </c>
       <c r="I69" s="2" t="n">
-        <v>2555000</v>
+        <v>1555000</v>
       </c>
     </row>
     <row r="70">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>-12328500</v>
+        <v>-18828500</v>
       </c>
       <c r="E72" s="2" t="n">
         <v>7934000</v>
@@ -2982,7 +2982,7 @@
         <v>7331000</v>
       </c>
       <c r="I72" s="2" t="n">
-        <v>13595500</v>
+        <v>7095500</v>
       </c>
     </row>
     <row r="73">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>-1971400</v>
+        <v>-3635850</v>
       </c>
       <c r="E76" s="2" t="n">
         <v>4803000</v>
@@ -3122,7 +3122,7 @@
         <v>761600</v>
       </c>
       <c r="I76" s="2" t="n">
-        <v>4469300</v>
+        <v>2804850</v>
       </c>
     </row>
     <row r="77">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>-13508600</v>
+        <v>-15553000</v>
       </c>
       <c r="E77" s="2" t="n">
         <v>5373350</v>
@@ -3157,7 +3157,7 @@
         <v>1779900</v>
       </c>
       <c r="I77" s="2" t="n">
-        <v>0</v>
+        <v>-2044400</v>
       </c>
     </row>
     <row r="78">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>-10535500</v>
+        <v>-11770600</v>
       </c>
       <c r="E79" s="2" t="n">
         <v>8610900</v>
@@ -3227,7 +3227,7 @@
         <v>407000</v>
       </c>
       <c r="I79" s="2" t="n">
-        <v>1725600</v>
+        <v>490500</v>
       </c>
     </row>
     <row r="80">
@@ -3247,7 +3247,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>-9689680.52</v>
+        <v>-9889680.52</v>
       </c>
       <c r="E80" s="2" t="n">
         <v>13804924.77</v>
@@ -3262,7 +3262,7 @@
         <v>8042750</v>
       </c>
       <c r="I80" s="2" t="n">
-        <v>18517494.25</v>
+        <v>18317494.25</v>
       </c>
     </row>
     <row r="81">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>-2931900</v>
+        <v>-3931900</v>
       </c>
       <c r="E81" s="2" t="n">
         <v>40800</v>
@@ -3297,7 +3297,7 @@
         <v>315000</v>
       </c>
       <c r="I81" s="2" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>-85380730</v>
+        <v>-100675080</v>
       </c>
       <c r="E85" s="2" t="n">
         <v>43814699.6</v>
@@ -3437,7 +3437,7 @@
         <v>6989609.4</v>
       </c>
       <c r="I85" s="2" t="n">
-        <v>7569508.04</v>
+        <v>-7724841.96</v>
       </c>
     </row>
     <row r="86">
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>-6396800</v>
+        <v>-7762800</v>
       </c>
       <c r="E90" s="2" t="n">
         <v>5947700</v>
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="I90" s="2" t="n">
-        <v>1892400</v>
+        <v>526400</v>
       </c>
     </row>
     <row r="91">
@@ -3667,7 +3667,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>-804028.8</v>
+        <v>-6240778.8</v>
       </c>
       <c r="E92" s="2" t="n">
         <v>2188000</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="I92" s="2" t="n">
-        <v>1383971.2</v>
+        <v>-4052778.8</v>
       </c>
     </row>
     <row r="93">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>1664149.13</v>
+        <v>1430849.13</v>
       </c>
       <c r="E93" s="2" t="n">
         <v>132350</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="I93" s="2" t="n">
-        <v>1796499.13</v>
+        <v>1563199.13</v>
       </c>
     </row>
     <row r="94">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>-3702500</v>
+        <v>-5457500</v>
       </c>
       <c r="E94" s="2" t="n">
         <v>2289800</v>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="2" t="n">
-        <v>399800</v>
+        <v>-1355200</v>
       </c>
     </row>
     <row r="95">
@@ -3947,7 +3947,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>141000</v>
+        <v>0</v>
       </c>
       <c r="E100" s="2" t="n">
         <v>0</v>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="I100" s="2" t="n">
-        <v>141000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>0</v>
+        <v>-18200</v>
       </c>
       <c r="E102" s="2" t="n">
         <v>18200</v>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="I102" s="2" t="n">
-        <v>18200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>303000</v>
+        <v>-120500</v>
       </c>
       <c r="E103" s="2" t="n">
         <v>0</v>
@@ -4067,7 +4067,77 @@
         <v>0</v>
       </c>
       <c r="I103" s="2" t="n">
-        <v>303000</v>
+        <v>-120500</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>Client</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>C22033</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mme BAKO </t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>-1322200</v>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" s="2" t="n">
+        <v>-1322200</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>Client</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>C22099</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="inlineStr">
+        <is>
+          <t>RASOAMARO GERMAINE</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>-1003700</v>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" s="2" t="n">
+        <v>-1003700</v>
       </c>
     </row>
   </sheetData>

--- a/data/donnees_AGRIVET FIANARANTSOA_2023-07-21.xlsx
+++ b/data/donnees_AGRIVET FIANARANTSOA_2023-07-21.xlsx
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-4035100</v>
+        <v>-5324300</v>
       </c>
       <c r="E69" s="2" t="n">
         <v>3449300</v>
@@ -2877,7 +2877,7 @@
         <v>1788300</v>
       </c>
       <c r="I69" s="2" t="n">
-        <v>1555000</v>
+        <v>265800</v>
       </c>
     </row>
     <row r="70">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>-18828500</v>
+        <v>-22335500</v>
       </c>
       <c r="E72" s="2" t="n">
         <v>7934000</v>
@@ -2982,7 +2982,7 @@
         <v>7331000</v>
       </c>
       <c r="I72" s="2" t="n">
-        <v>7095500</v>
+        <v>3588500</v>
       </c>
     </row>
     <row r="73">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>-3931900</v>
+        <v>-5628950</v>
       </c>
       <c r="E81" s="2" t="n">
         <v>40800</v>
@@ -3297,7 +3297,7 @@
         <v>315000</v>
       </c>
       <c r="I81" s="2" t="n">
-        <v>0</v>
+        <v>-1697050</v>
       </c>
     </row>
     <row r="82">

--- a/data/donnees_AGRIVET FIANARANTSOA_2023-07-21.xlsx
+++ b/data/donnees_AGRIVET FIANARANTSOA_2023-07-21.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-17075700</v>
+        <v>-18103400</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>8188000</v>
@@ -1267,7 +1267,7 @@
         <v>6930600</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>1546893</v>
+        <v>519193</v>
       </c>
     </row>
     <row r="24">
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-22192822.5</v>
+        <v>-23962822.5</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>7939300</v>
@@ -1442,7 +1442,7 @@
         <v>12531850</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>11028087.5</v>
+        <v>9258087.5</v>
       </c>
     </row>
     <row r="29">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-8354350</v>
+        <v>-9317950</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>1580400</v>
@@ -1897,7 +1897,7 @@
         <v>7232450</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>458500</v>
+        <v>-505100</v>
       </c>
     </row>
     <row r="42">
@@ -3247,7 +3247,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>-9889680.52</v>
+        <v>-11734680.52</v>
       </c>
       <c r="E80" s="2" t="n">
         <v>13804924.77</v>
@@ -3262,7 +3262,7 @@
         <v>8042750</v>
       </c>
       <c r="I80" s="2" t="n">
-        <v>18317494.25</v>
+        <v>16472494.25</v>
       </c>
     </row>
     <row r="81">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>-100675080</v>
+        <v>-101724210</v>
       </c>
       <c r="E85" s="2" t="n">
         <v>43814699.6</v>
@@ -3437,7 +3437,7 @@
         <v>6989609.4</v>
       </c>
       <c r="I85" s="2" t="n">
-        <v>-7724841.96</v>
+        <v>-8773971.960000001</v>
       </c>
     </row>
     <row r="86">
@@ -4138,6 +4138,76 @@
       </c>
       <c r="I105" s="2" t="n">
         <v>-1003700</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>Client</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>C22051</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>CLIENT DIVERS FIANARANTSOA 12</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>-391800</v>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" s="2" t="n">
+        <v>-391800</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>Client</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>C22087</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>RABAKOLINIRINA LALAO DORLINE</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>-148800</v>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" s="2" t="n">
+        <v>-148800</v>
       </c>
     </row>
   </sheetData>
